--- a/spider/vaccinationLocations/江西省-新冠疫苗接种点名单.xlsx
+++ b/spider/vaccinationLocations/江西省-新冠疫苗接种点名单.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YouZiming\Desktop\DATABASE\大三春学习资料\软件工程\团队项目\β版\vaccinationLocations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YouZiming\covid-19\spider\vaccinationLocations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37968598-80F7-4EB1-99A6-C58CFAB86CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1B916E-8C48-462C-B75D-9AA0D50556FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14004" yWindow="2436" windowWidth="17280" windowHeight="9060" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新余市" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="866">
   <si>
     <t>县</t>
   </si>
@@ -667,88 +667,34 @@
     <t>东湖区</t>
   </si>
   <si>
-    <t>东湖区人民政府（三经路699号）</t>
-  </si>
-  <si>
     <t>西湖区</t>
   </si>
   <si>
-    <t>抚生路369号2号楼2楼</t>
-  </si>
-  <si>
     <t>青云谱区</t>
   </si>
   <si>
-    <t>青云谱区广州路268号</t>
-  </si>
-  <si>
     <t>青山湖区</t>
   </si>
   <si>
-    <t>青山湖区南京东路699号（区卫生健康委）</t>
-  </si>
-  <si>
-    <t>湾里管理局</t>
-  </si>
-  <si>
-    <t>湾里管理局幸福街办领秀湖1号便民服务中心712室</t>
-  </si>
-  <si>
     <t>红谷滩区</t>
   </si>
   <si>
-    <t>绿茵路669号（区政府105）</t>
-  </si>
-  <si>
     <t>新建区</t>
   </si>
   <si>
-    <t>新建区礼步湖大道与新建大道交叉口往西南约50米</t>
-  </si>
-  <si>
     <t>高新区</t>
   </si>
   <si>
-    <t>高新区管委会（昌东大道7299号中节能国际中心2号楼）</t>
-  </si>
-  <si>
     <t>经开区</t>
   </si>
   <si>
-    <t>经开区管委会（经济技术开发区枫林西大道568号）</t>
-  </si>
-  <si>
     <t>南昌县</t>
   </si>
   <si>
-    <t>南昌县人防大楼（南昌县澄湖大厦东路北100米）</t>
-  </si>
-  <si>
     <t>安义县</t>
   </si>
   <si>
-    <t>安义县龙津镇前进路（县卫生健康委）</t>
-  </si>
-  <si>
     <t>进贤县</t>
-  </si>
-  <si>
-    <t>进贤县人民政府（民和路与中山大道交汇处）</t>
-  </si>
-  <si>
-    <r>
-      <t>                                          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t> 南昌市新冠疫苗接种门诊信息</t>
-    </r>
   </si>
   <si>
     <t>门诊名称</t>
@@ -3919,7 +3865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3982,14 +3928,6 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4853,7 +4791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4863,15 +4801,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4886,31 +4815,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4919,13 +4827,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4937,10 +4845,154 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4952,211 +5004,109 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5168,41 +5118,11 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5486,407 +5406,407 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:5" ht="31.2" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="63" thickBot="1">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>7906426055</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="87" thickBot="1">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>7906449778</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="72.599999999999994" thickBot="1">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>7906431381</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="47.4" thickBot="1">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>7907081940</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="63" thickBot="1">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>7906751641</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="47.4" thickBot="1">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>7906716553</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="47.4" thickBot="1">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>7906704495</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="47.4" thickBot="1">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>7907130761</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="47.4" thickBot="1">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="31.8" thickBot="1">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="94.2" thickBot="1">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="78.599999999999994" thickBot="1">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="78.599999999999994" thickBot="1">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="78.599999999999994" thickBot="1">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="63" thickBot="1">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="63" thickBot="1">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="47.4" thickBot="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="94.2" thickBot="1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>206</v>
       </c>
       <c r="E27" s="1"/>
@@ -5926,6 +5846,7 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5933,8 +5854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AB864D-C0D2-4B33-8A1A-B3BC253E2C21}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5943,13 +5864,13 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="66" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5957,12 +5878,12 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" ht="31.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5976,7 +5897,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5988,7 +5909,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.8" thickBot="1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6000,7 +5921,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="46.8">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6014,7 +5935,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="63" thickBot="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -6026,7 +5947,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6040,7 +5961,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -6052,7 +5973,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.8" thickBot="1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -6064,7 +5985,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6078,7 +5999,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.8" thickBot="1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -6090,7 +6011,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6104,7 +6025,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -6116,7 +6037,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
@@ -6128,7 +6049,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="78">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6142,7 +6063,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="78">
-      <c r="A17" s="7"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -6154,7 +6075,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="63" thickBot="1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
@@ -6166,7 +6087,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="46.8">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="66" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -6180,7 +6101,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="46.8">
-      <c r="A20" s="7"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
@@ -6192,7 +6113,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="62.4">
-      <c r="A21" s="7"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
@@ -6204,7 +6125,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="46.8">
-      <c r="A22" s="7"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
@@ -6216,7 +6137,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="46.8">
-      <c r="A23" s="7"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
@@ -6228,7 +6149,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
@@ -6240,7 +6161,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
@@ -6252,7 +6173,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="46.8">
-      <c r="A26" s="7"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="2" t="s">
         <v>64</v>
       </c>
@@ -6264,7 +6185,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="46.8">
-      <c r="A27" s="7"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
@@ -6276,7 +6197,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="46.8">
-      <c r="A28" s="7"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
@@ -6288,7 +6209,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="46.8">
-      <c r="A29" s="7"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -6300,7 +6221,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="46.8">
-      <c r="A30" s="7"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="2" t="s">
         <v>76</v>
       </c>
@@ -6312,7 +6233,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="46.8">
-      <c r="A31" s="7"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="2" t="s">
         <v>79</v>
       </c>
@@ -6324,7 +6245,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="46.8">
-      <c r="A32" s="7"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
@@ -6336,7 +6257,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="46.8">
-      <c r="A33" s="7"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
@@ -6348,7 +6269,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="46.8">
-      <c r="A34" s="7"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
@@ -6360,7 +6281,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="46.8">
-      <c r="A35" s="7"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="2" t="s">
         <v>91</v>
       </c>
@@ -6372,7 +6293,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="46.8">
-      <c r="A36" s="7"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="2" t="s">
         <v>94</v>
       </c>
@@ -6384,7 +6305,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="2" t="s">
         <v>97</v>
       </c>
@@ -6396,7 +6317,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="46.8">
-      <c r="A38" s="7"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="2" t="s">
         <v>99</v>
       </c>
@@ -6408,7 +6329,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="2" t="s">
         <v>102</v>
       </c>
@@ -6420,7 +6341,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="2" t="s">
         <v>103</v>
       </c>
@@ -6432,7 +6353,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="46.8">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="66" t="s">
         <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -6446,7 +6367,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="63" thickBot="1">
-      <c r="A42" s="6"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="2" t="s">
         <v>109</v>
       </c>
@@ -6458,7 +6379,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="46.8">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="66" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -6472,7 +6393,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="46.8">
-      <c r="A44" s="7"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="2" t="s">
         <v>114</v>
       </c>
@@ -6484,7 +6405,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="62.4">
-      <c r="A45" s="7"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="2" t="s">
         <v>116</v>
       </c>
@@ -6496,7 +6417,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A46" s="6"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="2" t="s">
         <v>119</v>
       </c>
@@ -6536,7 +6457,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="64" t="s">
         <v>130</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -6550,7 +6471,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="46.8">
-      <c r="A50" s="7"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="2" t="s">
         <v>133</v>
       </c>
@@ -6562,7 +6483,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="109.8" thickBot="1">
-      <c r="A51" s="6"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="2" t="s">
         <v>135</v>
       </c>
@@ -6575,6 +6496,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A15"/>
@@ -6582,12 +6509,6 @@
     <mergeCell ref="A19:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6596,969 +6517,818 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E120D3E9-5C93-4FF2-BD78-1DD09901E98A}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.4" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="47.4" thickBot="1">
+      <c r="A1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="78.599999999999994" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="13">
+        <v>88691324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63" thickBot="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="13">
+        <v>86563581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="47.4" thickBot="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="13">
+        <v>86722869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30.6" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="14">
+        <v>86770322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" thickBot="1">
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="63.6" thickBot="1">
+      <c r="A7" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="16">
-        <v>86853926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A3" s="15" t="s">
+      <c r="B7" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="13">
+        <v>86232587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="78.599999999999994" thickBot="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="13">
+        <v>86728120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" thickBot="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="15">
+        <v>86721546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72.599999999999994" thickBot="1">
+      <c r="A10" s="68"/>
+      <c r="B10" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="15">
+        <v>87702807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.8" thickBot="1">
+      <c r="A11" s="68"/>
+      <c r="B11" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="15">
+        <v>86588220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A12" s="69"/>
+      <c r="B12" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="15">
+        <v>88833899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63.6" thickBot="1">
+      <c r="A13" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B13" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="13">
+        <v>85250552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="47.4" thickBot="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="13">
+        <v>88459999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.4" thickBot="1">
+      <c r="A15" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="16">
-        <v>18942210845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="B15" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="13">
+        <v>88499649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="63.6" thickBot="1">
+      <c r="A16" s="68"/>
+      <c r="B16" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="13">
+        <v>88302456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="78.599999999999994" thickBot="1">
+      <c r="A17" s="69"/>
+      <c r="B17" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="13">
+        <v>88395981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.2" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="72">
+        <v>83766625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.2" thickBot="1">
+      <c r="A19" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="73"/>
+    </row>
+    <row r="20" spans="1:4" ht="63.6" thickBot="1">
+      <c r="A20" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B20" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="13">
+        <v>87721002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="127.2" thickBot="1">
+      <c r="A21" s="68"/>
+      <c r="B21" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="13">
+        <v>87357454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="78.599999999999994" thickBot="1">
+      <c r="A22" s="68"/>
+      <c r="B22" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="13">
+        <v>82723591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="63.6" thickBot="1">
+      <c r="A23" s="69"/>
+      <c r="B23" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="13">
+        <v>83886265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="63.6" thickBot="1">
+      <c r="A24" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="16">
-        <v>88460309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="94.2" thickBot="1">
-      <c r="A5" s="15" t="s">
+      <c r="B24" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="13">
+        <v>83752272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="78.599999999999994" thickBot="1">
+      <c r="A25" s="68"/>
+      <c r="B25" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="13">
+        <v>83755699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.8" thickBot="1">
+      <c r="A26" s="68"/>
+      <c r="B26" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="13">
+        <v>83703725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A27" s="68"/>
+      <c r="B27" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="15">
+        <v>18870095136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A28" s="68"/>
+      <c r="B28" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="15">
+        <v>18296159537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A29" s="68"/>
+      <c r="B29" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="15">
+        <v>18170926321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A30" s="68"/>
+      <c r="B30" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="15">
+        <v>83280955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A31" s="68"/>
+      <c r="B31" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="15">
+        <v>83222195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A32" s="68"/>
+      <c r="B32" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="15">
+        <v>17370865986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A33" s="68"/>
+      <c r="B33" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="15">
+        <v>83520588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="43.8" thickBot="1">
+      <c r="A34" s="68"/>
+      <c r="B34" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="15">
+        <v>83640077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A35" s="68"/>
+      <c r="B35" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" s="15">
+        <v>83110532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A36" s="68"/>
+      <c r="B36" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" s="15">
+        <v>18170929321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A37" s="68"/>
+      <c r="B37" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" s="15">
+        <v>13177826435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A38" s="68"/>
+      <c r="B38" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="15">
+        <v>15083512938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A39" s="68"/>
+      <c r="B39" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="15">
+        <v>83088068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A40" s="68"/>
+      <c r="B40" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="15">
+        <v>83081916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A41" s="68"/>
+      <c r="B41" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="15">
+        <v>83090639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A42" s="68"/>
+      <c r="B42" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="15">
+        <v>18170938737</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="43.8" thickBot="1">
+      <c r="A43" s="68"/>
+      <c r="B43" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" s="15">
+        <v>83121098</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A44" s="68"/>
+      <c r="B44" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="15">
+        <v>17370866495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="43.8" thickBot="1">
+      <c r="A45" s="69"/>
+      <c r="B45" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45" s="15">
+        <v>83130110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A46" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B46" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" s="15">
+        <v>86319222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="72.599999999999994" thickBot="1">
+      <c r="A47" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="16">
-        <v>88102616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="109.8" thickBot="1">
-      <c r="A6" s="15" t="s">
+      <c r="B47" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" s="15">
+        <v>83809117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A48" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B48" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="15">
+        <v>85705285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="43.8" thickBot="1">
+      <c r="A49" s="68"/>
+      <c r="B49" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" s="15">
+        <v>87317988</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A50" s="68"/>
+      <c r="B50" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" s="15">
+        <v>86319835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A51" s="69"/>
+      <c r="B51" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="15">
+        <v>85712013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A52" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="16">
-        <v>83766360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="63" thickBot="1">
-      <c r="A7" s="15" t="s">
+      <c r="B52" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" s="15">
+        <v>15570359626</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A53" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="16">
-        <v>83838075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="125.4" thickBot="1">
-      <c r="A8" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="16">
-        <v>83709856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="141" thickBot="1">
-      <c r="A9" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="16">
-        <v>88161223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="125.4" thickBot="1">
-      <c r="A10" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="16">
-        <v>83872585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="109.8" thickBot="1">
-      <c r="A11" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="16">
-        <v>85720035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="94.2" thickBot="1">
-      <c r="A12" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="16">
-        <v>83439970</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="109.8" thickBot="1">
-      <c r="A13" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="16">
-        <v>85622060</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.2">
-      <c r="A14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" ht="179.4" thickBot="1">
-      <c r="A15" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A16" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78.599999999999994" thickBot="1">
-      <c r="A17" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="23">
-        <v>88691324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="63" thickBot="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="23">
-        <v>86563581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="23">
-        <v>86722869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="24">
-        <v>86770322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.8" thickBot="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="63.6" thickBot="1">
-      <c r="A22" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="23">
-        <v>86232587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="78.599999999999994" thickBot="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="23">
-        <v>86728120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="48" thickBot="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D24" s="25">
-        <v>86721546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="72.599999999999994" thickBot="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="25">
-        <v>87702807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="43.8" thickBot="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="25">
-        <v>86588220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="25">
-        <v>88833899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="63.6" thickBot="1">
-      <c r="A28" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="23">
-        <v>85250552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="23">
-        <v>88459999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A30" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" s="23">
-        <v>88499649</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="63.6" thickBot="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="23">
-        <v>88302456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="78.599999999999994" thickBot="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D32" s="23">
-        <v>88395981</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="31.2" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="34">
-        <v>83766625</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.2" thickBot="1">
-      <c r="A34" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:4" ht="63.6" thickBot="1">
-      <c r="A35" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="D35" s="23">
-        <v>87721002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="127.2" thickBot="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="D36" s="23">
-        <v>87357454</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="78.599999999999994" thickBot="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="23">
-        <v>82723591</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="63.6" thickBot="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" s="23">
-        <v>83886265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="63.6" thickBot="1">
-      <c r="A39" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D39" s="23">
-        <v>83752272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="78.599999999999994" thickBot="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" s="23">
-        <v>83755699</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="43.8" thickBot="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="D41" s="23">
-        <v>83703725</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" s="25">
-        <v>18870095136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D43" s="25">
-        <v>18296159537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="25">
-        <v>18170926321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="D45" s="25">
-        <v>83280955</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="25">
-        <v>83222195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D47" s="25">
-        <v>17370865986</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="D48" s="25">
-        <v>83520588</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="43.8" thickBot="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="D49" s="25">
-        <v>83640077</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="D50" s="25">
-        <v>83110532</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="D51" s="25">
-        <v>18170929321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D52" s="25">
-        <v>13177826435</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="D53" s="25">
-        <v>15083512938</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="D54" s="25">
-        <v>83088068</v>
+      <c r="B53" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D53" s="15">
+        <v>85682916</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="43.8" thickBot="1">
+      <c r="A54" s="68"/>
+      <c r="B54" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="15">
+        <v>85588290</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D55" s="25">
-        <v>83081916</v>
+      <c r="A55" s="68"/>
+      <c r="B55" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D55" s="15">
+        <v>85669921</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="D56" s="25">
-        <v>83090639</v>
+      <c r="A56" s="68"/>
+      <c r="B56" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D56" s="15">
+        <v>85662089</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="D57" s="25">
-        <v>18170938737</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="43.8" thickBot="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="D58" s="25">
-        <v>83121098</v>
+      <c r="A57" s="68"/>
+      <c r="B57" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="15">
+        <v>85586870</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A58" s="68"/>
+      <c r="B58" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58" s="15">
+        <v>85546890</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="D59" s="25">
-        <v>17370866495</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="43.8" thickBot="1">
-      <c r="A60" s="31"/>
-      <c r="B60" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D60" s="25">
-        <v>83130110</v>
+      <c r="A59" s="68"/>
+      <c r="B59" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D59" s="15">
+        <v>13870689951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A60" s="68"/>
+      <c r="B60" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D60" s="15">
+        <v>13767147428</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A61" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="D61" s="25">
-        <v>86319222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="72.599999999999994" thickBot="1">
-      <c r="A62" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D62" s="25">
-        <v>83809117</v>
+      <c r="A61" s="68"/>
+      <c r="B61" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D61" s="15">
+        <v>85331568</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A62" s="68"/>
+      <c r="B62" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D62" s="15">
+        <v>13879103122</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A63" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D63" s="25">
-        <v>85705285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="43.8" thickBot="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="25">
-        <v>87317988</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="D65" s="25">
-        <v>86319835</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A66" s="31"/>
-      <c r="B66" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="D66" s="25">
-        <v>85712013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="29.4" thickBot="1">
-      <c r="A67" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="D67" s="25">
-        <v>15570359626</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="29.4" thickBot="1">
-      <c r="A68" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="D68" s="25">
-        <v>85682916</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="43.8" thickBot="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="D69" s="25">
-        <v>85588290</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D70" s="25">
-        <v>85669921</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="26" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C63" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="D71" s="25">
-        <v>85662089</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="26" t="s">
+      <c r="D63" s="15">
+        <v>13870648323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A64" s="69"/>
+      <c r="B64" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C64" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="D72" s="25">
-        <v>85586870</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="D73" s="25">
-        <v>85546890</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D74" s="25">
-        <v>13870689951</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="D75" s="25">
-        <v>13767147428</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="D76" s="25">
-        <v>85331568</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A77" s="29"/>
-      <c r="B77" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="D77" s="25">
-        <v>13879103122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A78" s="29"/>
-      <c r="B78" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="D78" s="25">
-        <v>13870648323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="58.2" thickBot="1">
-      <c r="A79" s="31"/>
-      <c r="B79" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D79" s="25">
+      <c r="D64" s="15">
         <v>13870929026</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14.4">
-      <c r="A80" s="36"/>
+    <row r="65" spans="1:1" ht="14.4">
+      <c r="A65" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A60"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A53:A64"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A45"/>
+    <mergeCell ref="A48:A51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7569,936 +7339,936 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417FAD12-7A79-4072-875D-B03B9195B216}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.2">
+      <c r="A3" s="74"/>
+      <c r="B3" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="78"/>
+    </row>
+    <row r="4" spans="1:6" ht="72">
+      <c r="A4" s="75"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="77"/>
+      <c r="F4" s="79"/>
+    </row>
+    <row r="5" spans="1:6" ht="72">
+      <c r="A5" s="25"/>
+      <c r="B5" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.8">
-      <c r="A2" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="D6" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="E6" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="D7" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="F2" s="43"/>
-    </row>
-    <row r="3" spans="1:6" ht="43.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="52" t="s">
+      <c r="E7" s="21">
+        <v>13970247977</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8">
+      <c r="A8" s="74"/>
+      <c r="B8" s="76" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C8" s="76" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D8" s="76" t="s">
         <v>368</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E8" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="78"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8">
+      <c r="A9" s="75"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="54"/>
-    </row>
-    <row r="4" spans="1:6" ht="72">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="1:6" ht="72">
-      <c r="A5" s="42"/>
-      <c r="B5" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="F9" s="79"/>
+    </row>
+    <row r="10" spans="1:6" ht="72">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="C10" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="D10" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="43"/>
-    </row>
-    <row r="6" spans="1:6" ht="57.6">
-      <c r="A6" s="42"/>
-      <c r="B6" s="38" t="s">
+      <c r="E10" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" ht="57.6">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="C11" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="D11" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="F6" s="43"/>
-    </row>
-    <row r="7" spans="1:6" ht="43.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="E11" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="72">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="38">
-        <v>13970247977</v>
-      </c>
-      <c r="F7" s="43"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52" t="s">
+      <c r="C12" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="D12" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="E12" s="21">
+        <v>15170288927</v>
+      </c>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="43.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="D13" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="1:6" ht="28.8">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="40" t="s">
+      <c r="E13" s="21">
+        <v>15170272909</v>
+      </c>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="43.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:6" ht="72">
-      <c r="A10" s="42"/>
-      <c r="B10" s="38" t="s">
+      <c r="D14" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="E14" s="21">
+        <v>13979230762</v>
+      </c>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="57.6">
+      <c r="A15" s="25"/>
+      <c r="B15" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="C15" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="D15" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" spans="1:6" ht="57.6">
-      <c r="A11" s="42"/>
-      <c r="B11" s="38" t="s">
+      <c r="E15" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="C16" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="D16" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="12" spans="1:6" ht="72">
-      <c r="A12" s="42"/>
-      <c r="B12" s="38" t="s">
+      <c r="E16" s="21">
+        <v>18270259760</v>
+      </c>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C17" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D17" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="E12" s="38">
-        <v>15170288927</v>
-      </c>
-      <c r="F12" s="43"/>
-    </row>
-    <row r="13" spans="1:6" ht="43.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="C13" s="38" t="s">
+      <c r="E17" s="21">
+        <v>13979270651</v>
+      </c>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" ht="57.6">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="C18" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="E13" s="38">
-        <v>15170272909</v>
-      </c>
-      <c r="F13" s="43"/>
-    </row>
-    <row r="14" spans="1:6" ht="43.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="C14" s="38" t="s">
+      <c r="D18" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="E18" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E14" s="38">
-        <v>13979230762</v>
-      </c>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" spans="1:6" ht="57.6">
-      <c r="A15" s="42"/>
-      <c r="B15" s="38" t="s">
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="57.6">
+      <c r="A19" s="25"/>
+      <c r="B19" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C19" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D19" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E19" s="21">
+        <v>7923222216</v>
+      </c>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" ht="57.6">
+      <c r="A20" s="25"/>
+      <c r="B20" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="F15" s="43"/>
-    </row>
-    <row r="16" spans="1:6" ht="43.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="38" t="s">
+      <c r="C20" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="D20" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="E20" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="E16" s="38">
-        <v>18270259760</v>
-      </c>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="1:6" ht="43.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="38" t="s">
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" ht="57.6">
+      <c r="A21" s="25"/>
+      <c r="B21" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C21" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D21" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="E17" s="38">
-        <v>13979270651</v>
-      </c>
-      <c r="F17" s="43"/>
-    </row>
-    <row r="18" spans="1:6" ht="57.6">
-      <c r="A18" s="42"/>
-      <c r="B18" s="38" t="s">
+      <c r="E21" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="57.6">
+      <c r="A22" s="25"/>
+      <c r="B22" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D22" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E22" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" spans="1:6" ht="57.6">
-      <c r="A19" s="42"/>
-      <c r="B19" s="38" t="s">
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="57.6">
+      <c r="A23" s="25"/>
+      <c r="B23" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="D23" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="E23" s="21">
+        <v>13307021669</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="E19" s="38">
-        <v>7923222216</v>
-      </c>
-      <c r="F19" s="43"/>
-    </row>
-    <row r="20" spans="1:6" ht="57.6">
-      <c r="A20" s="42"/>
-      <c r="B20" s="38" t="s">
+      <c r="D24" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="E24" s="21">
+        <v>15374234889</v>
+      </c>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" ht="43.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D25" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E25" s="21">
+        <v>15870830826</v>
+      </c>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" ht="43.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="F20" s="43"/>
-    </row>
-    <row r="21" spans="1:6" ht="57.6">
-      <c r="A21" s="42"/>
-      <c r="B21" s="38" t="s">
+      <c r="D26" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="E26" s="21">
+        <v>15270261543</v>
+      </c>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" customHeight="1">
+      <c r="A27" s="74"/>
+      <c r="B27" s="76" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" s="76" t="s">
         <v>422</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D27" s="76" t="s">
         <v>423</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E27" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="22" spans="1:6" ht="57.6">
-      <c r="A22" s="42"/>
-      <c r="B22" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C22" s="38" t="s">
+      <c r="F27" s="78"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.4">
+      <c r="A28" s="75"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="23">
+        <v>15179244176</v>
+      </c>
+      <c r="F28" s="79"/>
+    </row>
+    <row r="29" spans="1:6" ht="43.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D29" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E29" s="21">
+        <v>13879206045</v>
+      </c>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" ht="43.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="F22" s="43"/>
-    </row>
-    <row r="23" spans="1:6" ht="57.6">
-      <c r="A23" s="42"/>
-      <c r="B23" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C23" s="38" t="s">
+      <c r="D30" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="E30" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="E23" s="38">
-        <v>13307021669</v>
-      </c>
-      <c r="F23" s="43"/>
-    </row>
-    <row r="24" spans="1:6" ht="43.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" ht="43.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D31" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="E24" s="38">
-        <v>15374234889</v>
-      </c>
-      <c r="F24" s="43"/>
-    </row>
-    <row r="25" spans="1:6" ht="43.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C25" s="38" t="s">
+      <c r="E31" s="21">
+        <v>15798033067</v>
+      </c>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" ht="57.6">
+      <c r="A32" s="25"/>
+      <c r="B32" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D32" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="E25" s="38">
-        <v>15870830826</v>
-      </c>
-      <c r="F25" s="43"/>
-    </row>
-    <row r="26" spans="1:6" ht="43.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C26" s="38" t="s">
+      <c r="E32" s="21">
+        <v>15070262799</v>
+      </c>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" ht="43.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D33" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="E26" s="38">
-        <v>15270261543</v>
-      </c>
-      <c r="F26" s="43"/>
-    </row>
-    <row r="27" spans="1:6" ht="28.8" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="52" t="s">
-        <v>421</v>
-      </c>
-      <c r="C27" s="52" t="s">
+      <c r="E33" s="21">
+        <v>18870234011</v>
+      </c>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:6" ht="57.6">
+      <c r="A34" s="25"/>
+      <c r="B34" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D34" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E34" s="21">
+        <v>18270232530</v>
+      </c>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" ht="43.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F27" s="54"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.4">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="40">
-        <v>15179244176</v>
-      </c>
-      <c r="F28" s="55"/>
-    </row>
-    <row r="29" spans="1:6" ht="43.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C29" s="38" t="s">
+      <c r="D35" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="E35" s="21">
+        <v>18770825979</v>
+      </c>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" ht="43.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D36" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="E29" s="38">
-        <v>13879206045</v>
-      </c>
-      <c r="F29" s="43"/>
-    </row>
-    <row r="30" spans="1:6" ht="43.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C30" s="38" t="s">
+      <c r="E36" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" ht="43.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="D37" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="F30" s="43"/>
-    </row>
-    <row r="31" spans="1:6" ht="43.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C31" s="38" t="s">
+      <c r="E37" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" ht="43.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="E31" s="38">
-        <v>15798033067</v>
-      </c>
-      <c r="F31" s="43"/>
-    </row>
-    <row r="32" spans="1:6" ht="57.6">
-      <c r="A32" s="42"/>
-      <c r="B32" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C32" s="38" t="s">
+      <c r="D38" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="E38" s="21">
+        <v>15270186147</v>
+      </c>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" ht="43.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="E32" s="38">
-        <v>15070262799</v>
-      </c>
-      <c r="F32" s="43"/>
-    </row>
-    <row r="33" spans="1:6" ht="43.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C33" s="38" t="s">
+      <c r="D39" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="E39" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="E33" s="38">
-        <v>18870234011</v>
-      </c>
-      <c r="F33" s="43"/>
-    </row>
-    <row r="34" spans="1:6" ht="57.6">
-      <c r="A34" s="42"/>
-      <c r="B34" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C34" s="38" t="s">
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" ht="43.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D40" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="E34" s="38">
-        <v>18270232530</v>
-      </c>
-      <c r="F34" s="43"/>
-    </row>
-    <row r="35" spans="1:6" ht="43.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C35" s="38" t="s">
+      <c r="E40" s="21">
+        <v>13870215620</v>
+      </c>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6" ht="43.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="E35" s="38">
-        <v>18770825979</v>
-      </c>
-      <c r="F35" s="43"/>
-    </row>
-    <row r="36" spans="1:6" ht="43.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C36" s="38" t="s">
+      <c r="D41" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="E41" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6" ht="57.6">
+      <c r="A42" s="25"/>
+      <c r="B42" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="F36" s="43"/>
-    </row>
-    <row r="37" spans="1:6" ht="43.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C37" s="38" t="s">
+      <c r="D42" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="E42" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" ht="57.6">
+      <c r="A43" s="25"/>
+      <c r="B43" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" spans="1:6" ht="43.2">
-      <c r="A38" s="42"/>
-      <c r="B38" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C38" s="38" t="s">
+      <c r="D43" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="E43" s="21">
+        <v>13507064814</v>
+      </c>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" ht="43.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="E38" s="38">
-        <v>15270186147</v>
-      </c>
-      <c r="F38" s="43"/>
-    </row>
-    <row r="39" spans="1:6" ht="43.2">
-      <c r="A39" s="42"/>
-      <c r="B39" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C39" s="38" t="s">
+      <c r="D44" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="E44" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" ht="43.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="F39" s="43"/>
-    </row>
-    <row r="40" spans="1:6" ht="43.2">
-      <c r="A40" s="42"/>
-      <c r="B40" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C40" s="38" t="s">
+      <c r="D45" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="E45" s="21">
+        <v>15779275123</v>
+      </c>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6" ht="43.2">
+      <c r="A46" s="25"/>
+      <c r="B46" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="E40" s="38">
-        <v>13870215620</v>
-      </c>
-      <c r="F40" s="43"/>
-    </row>
-    <row r="41" spans="1:6" ht="43.2">
-      <c r="A41" s="42"/>
-      <c r="B41" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C41" s="38" t="s">
+      <c r="D46" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="E46" s="21">
+        <v>15390852486</v>
+      </c>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" ht="57.6">
+      <c r="A47" s="25"/>
+      <c r="B47" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="D47" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F41" s="43"/>
-    </row>
-    <row r="42" spans="1:6" ht="57.6">
-      <c r="A42" s="42"/>
-      <c r="B42" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C42" s="38" t="s">
+      <c r="E47" s="21">
+        <v>15717021623</v>
+      </c>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6" ht="43.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D48" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E48" s="21">
+        <v>19880218305</v>
+      </c>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" ht="43.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="F42" s="43"/>
-    </row>
-    <row r="43" spans="1:6" ht="57.6">
-      <c r="A43" s="42"/>
-      <c r="B43" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C43" s="38" t="s">
+      <c r="D49" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="E49" s="21">
+        <v>13879275527</v>
+      </c>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:6" ht="43.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="E43" s="38">
-        <v>13507064814</v>
-      </c>
-      <c r="F43" s="43"/>
-    </row>
-    <row r="44" spans="1:6" ht="43.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C44" s="38" t="s">
+      <c r="D50" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="E50" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6" ht="43.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="F44" s="43"/>
-    </row>
-    <row r="45" spans="1:6" ht="43.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C45" s="38" t="s">
+      <c r="D51" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="E51" s="21">
+        <v>18720429089</v>
+      </c>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="1:6" ht="43.2">
+      <c r="A52" s="25"/>
+      <c r="B52" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="E45" s="38">
-        <v>15779275123</v>
-      </c>
-      <c r="F45" s="43"/>
-    </row>
-    <row r="46" spans="1:6" ht="43.2">
-      <c r="A46" s="42"/>
-      <c r="B46" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C46" s="38" t="s">
+      <c r="D52" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="E52" s="21">
+        <v>13755243507</v>
+      </c>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" ht="43.2">
+      <c r="A53" s="25"/>
+      <c r="B53" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="E46" s="38">
-        <v>15390852486</v>
-      </c>
-      <c r="F46" s="43"/>
-    </row>
-    <row r="47" spans="1:6" ht="57.6">
-      <c r="A47" s="42"/>
-      <c r="B47" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C47" s="38" t="s">
+      <c r="D53" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="E53" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="E47" s="38">
-        <v>15717021623</v>
-      </c>
-      <c r="F47" s="43"/>
-    </row>
-    <row r="48" spans="1:6" ht="43.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C48" s="38" t="s">
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="1:6" ht="57.6">
+      <c r="A54" s="25"/>
+      <c r="B54" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D54" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="E48" s="38">
-        <v>19880218305</v>
-      </c>
-      <c r="F48" s="43"/>
-    </row>
-    <row r="49" spans="1:6" ht="43.2">
-      <c r="A49" s="42"/>
-      <c r="B49" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C49" s="38" t="s">
+      <c r="E54" s="21">
+        <v>13755296934</v>
+      </c>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="1:6" ht="43.2">
+      <c r="A55" s="25"/>
+      <c r="B55" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D55" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="E49" s="38">
-        <v>13879275527</v>
-      </c>
-      <c r="F49" s="43"/>
-    </row>
-    <row r="50" spans="1:6" ht="43.2">
-      <c r="A50" s="42"/>
-      <c r="B50" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C50" s="38" t="s">
+      <c r="E55" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" spans="1:6" ht="43.2">
+      <c r="A56" s="25"/>
+      <c r="B56" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="D56" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="F50" s="43"/>
-    </row>
-    <row r="51" spans="1:6" ht="43.2">
-      <c r="A51" s="42"/>
-      <c r="B51" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C51" s="38" t="s">
+      <c r="E56" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" ht="43.2">
+      <c r="A57" s="25"/>
+      <c r="B57" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="E51" s="38">
-        <v>18720429089</v>
-      </c>
-      <c r="F51" s="43"/>
-    </row>
-    <row r="52" spans="1:6" ht="43.2">
-      <c r="A52" s="42"/>
-      <c r="B52" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C52" s="38" t="s">
+      <c r="D57" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="E57" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="E52" s="38">
-        <v>13755243507</v>
-      </c>
-      <c r="F52" s="43"/>
-    </row>
-    <row r="53" spans="1:6" ht="43.2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C53" s="38" t="s">
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="1:6" ht="43.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D58" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E58" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="F53" s="43"/>
-    </row>
-    <row r="54" spans="1:6" ht="57.6">
-      <c r="A54" s="42"/>
-      <c r="B54" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="E54" s="38">
-        <v>13755296934</v>
-      </c>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="1:6" ht="43.2">
-      <c r="A55" s="42"/>
-      <c r="B55" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>499</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="F55" s="43"/>
-    </row>
-    <row r="56" spans="1:6" ht="43.2">
-      <c r="A56" s="42"/>
-      <c r="B56" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="F56" s="43"/>
-    </row>
-    <row r="57" spans="1:6" ht="43.2">
-      <c r="A57" s="42"/>
-      <c r="B57" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="F57" s="43"/>
-    </row>
-    <row r="58" spans="1:6" ht="43.2">
-      <c r="A58" s="44"/>
-      <c r="B58" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>508</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>509</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>510</v>
-      </c>
-      <c r="F58" s="46"/>
+      <c r="F58" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8515,293 +8285,293 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="60" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="60" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="60"/>
+    <col min="1" max="1" width="6.6640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="83" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="A2" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6">
+      <c r="A4" s="30">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.2">
+      <c r="A5" s="30">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.2">
+      <c r="A6" s="30">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6">
+      <c r="A7" s="30">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>511</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.6">
-      <c r="A2" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="56">
-        <v>1</v>
-      </c>
-      <c r="B3" s="57" t="s">
+      <c r="C7" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="D7" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="E7" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="E3" s="56" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15.6">
+      <c r="A8" s="30">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6">
-      <c r="A4" s="56">
-        <v>2</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>512</v>
-      </c>
-      <c r="C4" s="57" t="s">
+      <c r="C8" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D8" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E8" s="30" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2">
-      <c r="A5" s="56">
-        <v>3</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" s="57" t="s">
+    <row r="9" spans="1:5" ht="15.6">
+      <c r="A9" s="30">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>519</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D9" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E9" s="30" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="31.2">
-      <c r="A6" s="56">
-        <v>4</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="57" t="s">
+    <row r="10" spans="1:5" ht="15.6">
+      <c r="A10" s="30">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>522</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="C10" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="D10" s="30" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6">
-      <c r="A7" s="56">
-        <v>5</v>
-      </c>
-      <c r="B7" s="57" t="s">
+      <c r="E10" s="30" t="s">
         <v>525</v>
       </c>
-      <c r="C7" s="57" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="15.6">
+      <c r="A11" s="30">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>526</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D11" s="30" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E11" s="30" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6">
-      <c r="A8" s="56">
-        <v>6</v>
-      </c>
-      <c r="B8" s="57" t="s">
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="A12" s="30">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="D12" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="E12" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="E8" s="56" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="15.6">
+      <c r="A13" s="30">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6">
-      <c r="A9" s="56">
-        <v>7</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>529</v>
-      </c>
-      <c r="C9" s="57" t="s">
+      <c r="C13" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D13" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E13" s="30" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6">
-      <c r="A10" s="56">
-        <v>8</v>
-      </c>
-      <c r="B10" s="57" t="s">
+    <row r="14" spans="1:5" ht="15.6">
+      <c r="A14" s="30">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>536</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="D14" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="E14" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="E10" s="56" t="s">
+    </row>
+    <row r="15" spans="1:5" s="20" customFormat="1" ht="15.6">
+      <c r="A15" s="30">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6">
-      <c r="A11" s="56">
-        <v>9</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>536</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="C15" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D15" s="31" t="s">
         <v>541</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E15" s="31" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6">
-      <c r="A12" s="56">
-        <v>10</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>536</v>
-      </c>
-      <c r="C12" s="57" t="s">
+    <row r="16" spans="1:5" s="20" customFormat="1" ht="15.6">
+      <c r="A16" s="30">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D16" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E16" s="31" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="56">
-        <v>11</v>
-      </c>
-      <c r="B13" s="57" t="s">
+    <row r="17" spans="1:5" ht="15.6">
+      <c r="A17" s="30">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C17" s="31" t="s">
         <v>547</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D17" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E17" s="30" t="s">
         <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6">
-      <c r="A14" s="56">
-        <v>12</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>546</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>550</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>551</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="37" customFormat="1" ht="15.6">
-      <c r="A15" s="56">
-        <v>13</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>553</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>555</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="37" customFormat="1" ht="15.6">
-      <c r="A16" s="56">
-        <v>14</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>553</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>557</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>558</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6">
-      <c r="A17" s="56">
-        <v>15</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>560</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>561</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>562</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -8817,260 +8587,260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6778446-5CA6-4F82-957C-7675DE5EDB95}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="70" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A2" s="85"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="90"/>
+    </row>
+    <row r="3" spans="1:5" ht="75">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="E3" s="36">
+        <v>8202090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="E4" s="36">
+        <v>8410115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" s="36">
+        <v>8226955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="E6" s="36">
+        <v>8462300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="35">
+        <v>6</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="D1" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="74"/>
-    </row>
-    <row r="3" spans="1:5" ht="75">
-      <c r="A3" s="62">
-        <v>1</v>
-      </c>
-      <c r="B3" s="61" t="s">
+      <c r="D8" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="E8" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="D3" s="61" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="35">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="E3" s="63">
-        <v>8202090</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="62">
-        <v>2</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C4" s="61" t="s">
+      <c r="D9" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="E9" s="36">
+        <v>15807082979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>569</v>
       </c>
-      <c r="E4" s="63">
-        <v>8410115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="62">
-        <v>3</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C5" s="61" t="s">
+      <c r="C10" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D10" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="E5" s="63">
-        <v>8226955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="62">
-        <v>4</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" s="61" t="s">
+      <c r="E10" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="D6" s="61" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="35">
+        <v>9</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="E6" s="63">
-        <v>8462300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="62">
-        <v>5</v>
-      </c>
-      <c r="B7" s="61" t="s">
+      <c r="D11" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="E11" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="D7" s="61" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="C12" s="34" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="60">
-      <c r="A8" s="62">
-        <v>6</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>574</v>
-      </c>
-      <c r="C8" s="61" t="s">
+      <c r="D12" s="34" t="s">
         <v>578</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="E12" s="36">
+        <v>18979866275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="91">
+        <v>11</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" s="93" t="s">
         <v>579</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="D13" s="93" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="60">
-      <c r="A9" s="62">
-        <v>7</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>574</v>
-      </c>
-      <c r="C9" s="61" t="s">
+      <c r="E13" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="D9" s="61" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="30.6" thickBot="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="36" t="s">
         <v>582</v>
       </c>
-      <c r="E9" s="63">
-        <v>15807082979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="62">
-        <v>8</v>
-      </c>
-      <c r="B10" s="61" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="60.6" thickBot="1">
+      <c r="A15" s="38">
+        <v>12</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>583</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="D15" s="39" t="s">
         <v>584</v>
       </c>
-      <c r="D10" s="61" t="s">
-        <v>585</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="62">
-        <v>9</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>583</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>588</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="62">
-        <v>10</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>590</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>591</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>592</v>
-      </c>
-      <c r="E12" s="63">
-        <v>18979866275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="75">
-        <v>11</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>590</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>593</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>594</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30.6" thickBot="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="63" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60.6" thickBot="1">
-      <c r="A15" s="65">
-        <v>12</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>565</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>597</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>598</v>
-      </c>
-      <c r="E15" s="67">
+      <c r="E15" s="40">
         <v>15307988378</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9088,258 +8858,258 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:5" ht="34.799999999999997">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="81">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="43">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60">
+      <c r="A4" s="43">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60">
+      <c r="A5" s="43">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60">
+      <c r="A6" s="43">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>599</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="E6" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="E2" s="82" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="75">
+      <c r="A7" s="43">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="81">
-        <v>2</v>
-      </c>
-      <c r="B3" s="82" t="s">
+      <c r="D7" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="E7" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="D3" s="82" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="105">
+      <c r="A8" s="43">
+        <v>7</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>604</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="D8" s="44" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="60">
-      <c r="A4" s="81">
-        <v>3</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="C4" s="82" t="s">
+      <c r="E8" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="D4" s="82" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="43">
+        <v>8</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="D9" s="44" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60">
-      <c r="A5" s="81">
-        <v>4</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="C5" s="82" t="s">
+      <c r="E9" s="44" t="s">
         <v>609</v>
       </c>
-      <c r="D5" s="82" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="43">
+        <v>9</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>610</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="C10" s="44" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="60">
-      <c r="A6" s="81">
-        <v>5</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="C6" s="82" t="s">
+      <c r="D10" s="44" t="s">
         <v>612</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="E10" s="44">
+        <v>13970182599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="135">
+      <c r="A11" s="43">
+        <v>11</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>613</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="C11" s="44" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="81">
-        <v>6</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="C7" s="82" t="s">
+      <c r="D11" s="44" t="s">
         <v>615</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="E11" s="44" t="s">
         <v>616</v>
       </c>
-      <c r="E7" s="82" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="43">
+        <v>12</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="105">
-      <c r="A8" s="81">
-        <v>7</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="C8" s="82" t="s">
+      <c r="C12" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D12" s="44" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E12" s="44">
+        <v>13607013298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45">
+      <c r="A13" s="43">
+        <v>13</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>617</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="60">
-      <c r="A9" s="81">
-        <v>8</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="C9" s="82" t="s">
+      <c r="D13" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="E13" s="44">
+        <v>18870160238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60">
+      <c r="A14" s="43">
+        <v>10</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="C14" s="44" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="81">
-        <v>9</v>
-      </c>
-      <c r="B10" s="82" t="s">
+      <c r="D14" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="E14" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="D10" s="82" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="45">
+      <c r="A15" s="43">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="E10" s="82">
-        <v>13970182599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="135">
-      <c r="A11" s="81">
-        <v>11</v>
-      </c>
-      <c r="B11" s="82" t="s">
+      <c r="D15" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="E15" s="44" t="s">
         <v>628</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>629</v>
-      </c>
-      <c r="E11" s="82" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45">
-      <c r="A12" s="81">
-        <v>12</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>631</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>632</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>633</v>
-      </c>
-      <c r="E12" s="82">
-        <v>13607013298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="81">
-        <v>13</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>631</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>634</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>635</v>
-      </c>
-      <c r="E13" s="82">
-        <v>18870160238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60">
-      <c r="A14" s="81">
-        <v>10</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>636</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>637</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>638</v>
-      </c>
-      <c r="E14" s="82" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45">
-      <c r="A15" s="81">
-        <v>14</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>636</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>640</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>641</v>
-      </c>
-      <c r="E15" s="82" t="s">
-        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -9359,1495 +9129,1665 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:7" ht="123" thickBot="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>643</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>644</v>
-      </c>
-      <c r="D1" s="84" t="s">
-        <v>645</v>
-      </c>
-      <c r="E1" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>647</v>
-      </c>
-      <c r="G1" s="84" t="s">
-        <v>648</v>
+      <c r="B1" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>633</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="82.8">
       <c r="A2" s="95" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>651</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>652</v>
+        <v>637</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>655</v>
-      </c>
-      <c r="G2" s="97" t="s">
-        <v>656</v>
+        <v>641</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64.2" thickBot="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="88" t="s">
-        <v>653</v>
-      </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="98"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" ht="139.80000000000001" customHeight="1">
       <c r="A4" s="95" t="s">
-        <v>657</v>
-      </c>
-      <c r="B4" s="94"/>
+        <v>643</v>
+      </c>
+      <c r="B4" s="96"/>
       <c r="C4" s="95" t="s">
-        <v>658</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>652</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>659</v>
+        <v>644</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>645</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>661</v>
-      </c>
-      <c r="G4" s="97" t="s">
-        <v>656</v>
+        <v>647</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="64.2" thickBot="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="88" t="s">
-        <v>653</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>660</v>
-      </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="98"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="F5" s="97"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="145.80000000000001" customHeight="1">
       <c r="A6" s="95" t="s">
-        <v>662</v>
-      </c>
-      <c r="B6" s="94"/>
+        <v>648</v>
+      </c>
+      <c r="B6" s="96"/>
       <c r="C6" s="95" t="s">
-        <v>663</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>652</v>
+        <v>649</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="F6" s="95" t="s">
-        <v>665</v>
-      </c>
-      <c r="G6" s="97" t="s">
-        <v>656</v>
+        <v>651</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="63.6">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="99"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="98"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="100"/>
     </row>
     <row r="9" spans="1:7" ht="82.8">
       <c r="A9" s="95" t="s">
-        <v>666</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="100" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9" s="87" t="s">
         <v>652</v>
       </c>
-      <c r="E9" s="97" t="s">
-        <v>668</v>
-      </c>
-      <c r="F9" s="103" t="s">
-        <v>669</v>
-      </c>
-      <c r="G9" s="97" t="s">
-        <v>656</v>
+      <c r="B9" s="96"/>
+      <c r="C9" s="107" t="s">
+        <v>653</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>654</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>655</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="63.6">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="90" t="s">
-        <v>653</v>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="52" t="s">
+        <v>639</v>
       </c>
       <c r="E10" s="99"/>
-      <c r="F10" s="104"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="98"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" spans="1:7" ht="82.8">
       <c r="A12" s="95" t="s">
-        <v>670</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="100" t="s">
-        <v>671</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>652</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>672</v>
-      </c>
-      <c r="F12" s="103" t="s">
-        <v>673</v>
-      </c>
-      <c r="G12" s="97" t="s">
         <v>656</v>
       </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="107" t="s">
+        <v>657</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>658</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>659</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="63.6">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="90" t="s">
-        <v>653</v>
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="52" t="s">
+        <v>639</v>
       </c>
       <c r="E13" s="99"/>
-      <c r="F13" s="104"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="99"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1">
-      <c r="A14" s="96"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="98"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="100"/>
     </row>
     <row r="15" spans="1:7" ht="82.8">
       <c r="A15" s="95" t="s">
-        <v>674</v>
-      </c>
-      <c r="B15" s="94"/>
+        <v>660</v>
+      </c>
+      <c r="B15" s="96"/>
       <c r="C15" s="95" t="s">
-        <v>675</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>652</v>
+        <v>661</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E15" s="95" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="F15" s="95" t="s">
-        <v>677</v>
-      </c>
-      <c r="G15" s="97" t="s">
-        <v>656</v>
+        <v>663</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="64.2" thickBot="1">
-      <c r="A16" s="96"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="88" t="s">
-        <v>653</v>
-      </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="98"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" ht="82.8">
       <c r="A17" s="95" t="s">
-        <v>678</v>
-      </c>
-      <c r="B17" s="94"/>
+        <v>664</v>
+      </c>
+      <c r="B17" s="96"/>
       <c r="C17" s="95" t="s">
-        <v>679</v>
-      </c>
-      <c r="D17" s="87" t="s">
-        <v>652</v>
+        <v>665</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="F17" s="95">
         <v>13407075530</v>
       </c>
-      <c r="G17" s="97" t="s">
-        <v>656</v>
+      <c r="G17" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="64.2" thickBot="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="88" t="s">
-        <v>653</v>
-      </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="98"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7" ht="82.8">
       <c r="A19" s="95" t="s">
-        <v>681</v>
-      </c>
-      <c r="B19" s="94"/>
+        <v>667</v>
+      </c>
+      <c r="B19" s="96"/>
       <c r="C19" s="95" t="s">
-        <v>682</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>652</v>
+        <v>668</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="F19" s="95" t="s">
-        <v>684</v>
-      </c>
-      <c r="G19" s="97" t="s">
-        <v>656</v>
+        <v>670</v>
+      </c>
+      <c r="G19" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="63.6">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="98"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="100"/>
     </row>
     <row r="22" spans="1:7" ht="82.8">
       <c r="A22" s="95" t="s">
-        <v>685</v>
-      </c>
-      <c r="B22" s="94"/>
+        <v>671</v>
+      </c>
+      <c r="B22" s="96"/>
       <c r="C22" s="95" t="s">
-        <v>686</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>652</v>
+        <v>672</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E22" s="95" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F22" s="95" t="s">
-        <v>688</v>
-      </c>
-      <c r="G22" s="97" t="s">
-        <v>656</v>
+        <v>674</v>
+      </c>
+      <c r="G22" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="63.6">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="98"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:7" ht="82.8">
       <c r="A25" s="95" t="s">
-        <v>689</v>
-      </c>
-      <c r="B25" s="94"/>
+        <v>675</v>
+      </c>
+      <c r="B25" s="96"/>
       <c r="C25" s="95" t="s">
-        <v>690</v>
-      </c>
-      <c r="D25" s="87" t="s">
-        <v>652</v>
+        <v>676</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E25" s="95" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F25" s="95" t="s">
-        <v>692</v>
-      </c>
-      <c r="G25" s="97" t="s">
-        <v>656</v>
+        <v>678</v>
+      </c>
+      <c r="G25" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="63.6">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="99"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1">
-      <c r="A27" s="96"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="98"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="100"/>
     </row>
     <row r="28" spans="1:7" ht="84.6" customHeight="1">
       <c r="A28" s="95" t="s">
-        <v>693</v>
-      </c>
-      <c r="B28" s="94"/>
+        <v>679</v>
+      </c>
+      <c r="B28" s="96"/>
       <c r="C28" s="95" t="s">
-        <v>694</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>652</v>
+        <v>680</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E28" s="95" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F28" s="95" t="s">
-        <v>696</v>
-      </c>
-      <c r="G28" s="97" t="s">
-        <v>656</v>
+        <v>682</v>
+      </c>
+      <c r="G28" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="63.6">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
       <c r="G29" s="99"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1">
-      <c r="A30" s="96"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="98"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="100"/>
     </row>
     <row r="31" spans="1:7" ht="82.8">
       <c r="A31" s="95" t="s">
-        <v>697</v>
-      </c>
-      <c r="B31" s="94"/>
+        <v>683</v>
+      </c>
+      <c r="B31" s="96"/>
       <c r="C31" s="95" t="s">
-        <v>698</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>652</v>
+        <v>684</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E31" s="95" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="F31" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="G31" s="97" t="s">
-        <v>656</v>
+        <v>686</v>
+      </c>
+      <c r="G31" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="63.6">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="99"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="100"/>
     </row>
     <row r="34" spans="1:7" ht="82.8">
       <c r="A34" s="95" t="s">
-        <v>701</v>
-      </c>
-      <c r="B34" s="94"/>
+        <v>687</v>
+      </c>
+      <c r="B34" s="96"/>
       <c r="C34" s="95" t="s">
-        <v>702</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>652</v>
+        <v>688</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E34" s="95" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F34" s="95" t="s">
-        <v>704</v>
-      </c>
-      <c r="G34" s="97" t="s">
-        <v>656</v>
+        <v>690</v>
+      </c>
+      <c r="G34" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="63.6">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
       <c r="G35" s="99"/>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="98"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="100"/>
     </row>
     <row r="37" spans="1:7" ht="82.8">
       <c r="A37" s="95" t="s">
-        <v>705</v>
-      </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="106" t="s">
-        <v>706</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>652</v>
-      </c>
-      <c r="E37" s="97" t="s">
-        <v>707</v>
-      </c>
-      <c r="F37" s="103" t="s">
-        <v>708</v>
-      </c>
-      <c r="G37" s="97" t="s">
-        <v>656</v>
+        <v>691</v>
+      </c>
+      <c r="B37" s="96"/>
+      <c r="C37" s="101" t="s">
+        <v>692</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="E37" s="98" t="s">
+        <v>693</v>
+      </c>
+      <c r="F37" s="104" t="s">
+        <v>694</v>
+      </c>
+      <c r="G37" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="63.6">
-      <c r="A38" s="94"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="90" t="s">
-        <v>653</v>
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="52" t="s">
+        <v>639</v>
       </c>
       <c r="E38" s="99"/>
-      <c r="F38" s="104"/>
+      <c r="F38" s="105"/>
       <c r="G38" s="99"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1">
-      <c r="A39" s="96"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="98"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="100"/>
     </row>
     <row r="40" spans="1:7" ht="82.8">
       <c r="A40" s="95" t="s">
-        <v>709</v>
-      </c>
-      <c r="B40" s="94"/>
+        <v>695</v>
+      </c>
+      <c r="B40" s="96"/>
       <c r="C40" s="95" t="s">
-        <v>710</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>652</v>
+        <v>696</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E40" s="95" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="F40" s="95" t="s">
-        <v>712</v>
-      </c>
-      <c r="G40" s="97" t="s">
-        <v>656</v>
+        <v>698</v>
+      </c>
+      <c r="G40" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="63.6">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
       <c r="G41" s="99"/>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1">
-      <c r="A42" s="96"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="98"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="100"/>
     </row>
     <row r="43" spans="1:7" ht="84.6" customHeight="1">
       <c r="A43" s="95" t="s">
-        <v>713</v>
-      </c>
-      <c r="B43" s="94"/>
+        <v>699</v>
+      </c>
+      <c r="B43" s="96"/>
       <c r="C43" s="95" t="s">
-        <v>714</v>
-      </c>
-      <c r="D43" s="87" t="s">
-        <v>652</v>
+        <v>700</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E43" s="95" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="F43" s="95" t="s">
-        <v>716</v>
-      </c>
-      <c r="G43" s="97" t="s">
-        <v>656</v>
+        <v>702</v>
+      </c>
+      <c r="G43" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="63.6">
-      <c r="A44" s="94"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
       <c r="G44" s="99"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1">
-      <c r="A45" s="96"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="98"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="100"/>
     </row>
     <row r="46" spans="1:7" ht="82.8">
       <c r="A46" s="95" t="s">
-        <v>717</v>
-      </c>
-      <c r="B46" s="94"/>
+        <v>703</v>
+      </c>
+      <c r="B46" s="96"/>
       <c r="C46" s="95" t="s">
-        <v>718</v>
-      </c>
-      <c r="D46" s="87" t="s">
-        <v>652</v>
+        <v>704</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E46" s="95" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F46" s="95" t="s">
-        <v>720</v>
-      </c>
-      <c r="G46" s="97" t="s">
-        <v>656</v>
+        <v>706</v>
+      </c>
+      <c r="G46" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="63.6">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
       <c r="G47" s="99"/>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1">
-      <c r="A48" s="96"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="98"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="100"/>
     </row>
     <row r="49" spans="1:7" ht="84.6" customHeight="1">
       <c r="A49" s="95" t="s">
-        <v>721</v>
-      </c>
-      <c r="B49" s="94"/>
+        <v>707</v>
+      </c>
+      <c r="B49" s="96"/>
       <c r="C49" s="95" t="s">
-        <v>722</v>
-      </c>
-      <c r="D49" s="87" t="s">
-        <v>652</v>
+        <v>708</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E49" s="95" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="F49" s="95" t="s">
-        <v>724</v>
-      </c>
-      <c r="G49" s="97" t="s">
-        <v>656</v>
+        <v>710</v>
+      </c>
+      <c r="G49" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="63.6">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
       <c r="G50" s="99"/>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1">
-      <c r="A51" s="96"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="98"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="100"/>
     </row>
     <row r="52" spans="1:7" ht="82.8">
       <c r="A52" s="95" t="s">
-        <v>725</v>
-      </c>
-      <c r="B52" s="94"/>
+        <v>711</v>
+      </c>
+      <c r="B52" s="96"/>
       <c r="C52" s="95" t="s">
-        <v>726</v>
-      </c>
-      <c r="D52" s="87" t="s">
-        <v>652</v>
+        <v>712</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E52" s="95" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F52" s="95" t="s">
-        <v>728</v>
-      </c>
-      <c r="G52" s="97" t="s">
-        <v>656</v>
+        <v>714</v>
+      </c>
+      <c r="G52" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="63.6">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
       <c r="G53" s="99"/>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1">
-      <c r="A54" s="96"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="98"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="100"/>
     </row>
     <row r="55" spans="1:7" ht="82.8">
       <c r="A55" s="95" t="s">
-        <v>729</v>
-      </c>
-      <c r="B55" s="94"/>
+        <v>715</v>
+      </c>
+      <c r="B55" s="96"/>
       <c r="C55" s="95" t="s">
-        <v>730</v>
-      </c>
-      <c r="D55" s="87" t="s">
-        <v>652</v>
+        <v>716</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E55" s="95" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="F55" s="95" t="s">
-        <v>732</v>
-      </c>
-      <c r="G55" s="97" t="s">
-        <v>656</v>
+        <v>718</v>
+      </c>
+      <c r="G55" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="63.6">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
       <c r="G56" s="99"/>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1">
-      <c r="A57" s="96"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="98"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="100"/>
     </row>
     <row r="58" spans="1:7" ht="82.8">
       <c r="A58" s="95" t="s">
-        <v>733</v>
-      </c>
-      <c r="B58" s="94"/>
+        <v>719</v>
+      </c>
+      <c r="B58" s="96"/>
       <c r="C58" s="95" t="s">
-        <v>734</v>
-      </c>
-      <c r="D58" s="87" t="s">
-        <v>652</v>
+        <v>720</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E58" s="95" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F58" s="95" t="s">
-        <v>736</v>
-      </c>
-      <c r="G58" s="97" t="s">
-        <v>656</v>
+        <v>722</v>
+      </c>
+      <c r="G58" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="63.6">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
       <c r="G59" s="99"/>
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1">
-      <c r="A60" s="96"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="98"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="100"/>
     </row>
     <row r="61" spans="1:7" ht="82.8">
       <c r="A61" s="95" t="s">
-        <v>737</v>
-      </c>
-      <c r="B61" s="94"/>
+        <v>723</v>
+      </c>
+      <c r="B61" s="96"/>
       <c r="C61" s="95" t="s">
-        <v>738</v>
-      </c>
-      <c r="D61" s="87" t="s">
-        <v>652</v>
+        <v>724</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E61" s="95" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="F61" s="95" t="s">
-        <v>740</v>
-      </c>
-      <c r="G61" s="97" t="s">
-        <v>656</v>
+        <v>726</v>
+      </c>
+      <c r="G61" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="63.6">
-      <c r="A62" s="94"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
       <c r="G62" s="99"/>
     </row>
     <row r="63" spans="1:7" ht="15" thickBot="1">
-      <c r="A63" s="96"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="98"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="100"/>
     </row>
     <row r="64" spans="1:7" ht="82.8">
       <c r="A64" s="95" t="s">
-        <v>741</v>
-      </c>
-      <c r="B64" s="94"/>
+        <v>727</v>
+      </c>
+      <c r="B64" s="96"/>
       <c r="C64" s="95" t="s">
-        <v>742</v>
-      </c>
-      <c r="D64" s="87" t="s">
-        <v>652</v>
+        <v>728</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E64" s="95" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="F64" s="95" t="s">
-        <v>744</v>
-      </c>
-      <c r="G64" s="97" t="s">
-        <v>656</v>
+        <v>730</v>
+      </c>
+      <c r="G64" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="63.6">
-      <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
       <c r="G65" s="99"/>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1">
-      <c r="A66" s="96"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="98"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="100"/>
     </row>
     <row r="67" spans="1:7" ht="82.8">
       <c r="A67" s="95" t="s">
-        <v>745</v>
-      </c>
-      <c r="B67" s="94"/>
+        <v>731</v>
+      </c>
+      <c r="B67" s="96"/>
       <c r="C67" s="95" t="s">
-        <v>746</v>
-      </c>
-      <c r="D67" s="87" t="s">
-        <v>652</v>
+        <v>732</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E67" s="95" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="F67" s="95" t="s">
-        <v>748</v>
-      </c>
-      <c r="G67" s="97" t="s">
-        <v>656</v>
+        <v>734</v>
+      </c>
+      <c r="G67" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="63.6">
-      <c r="A68" s="94"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
       <c r="G68" s="99"/>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1">
-      <c r="A69" s="96"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="98"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="100"/>
     </row>
     <row r="70" spans="1:7" ht="82.8">
       <c r="A70" s="95" t="s">
-        <v>749</v>
-      </c>
-      <c r="B70" s="94"/>
+        <v>735</v>
+      </c>
+      <c r="B70" s="96"/>
       <c r="C70" s="95" t="s">
-        <v>750</v>
-      </c>
-      <c r="D70" s="87" t="s">
-        <v>652</v>
+        <v>736</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E70" s="95" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="F70" s="95" t="s">
-        <v>752</v>
-      </c>
-      <c r="G70" s="97" t="s">
-        <v>656</v>
+        <v>738</v>
+      </c>
+      <c r="G70" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="63.6">
-      <c r="A71" s="94"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
+      <c r="A71" s="96"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
       <c r="G71" s="99"/>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1">
-      <c r="A72" s="96"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="98"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="100"/>
     </row>
     <row r="73" spans="1:7" ht="82.8">
       <c r="A73" s="95" t="s">
-        <v>753</v>
-      </c>
-      <c r="B73" s="94"/>
+        <v>739</v>
+      </c>
+      <c r="B73" s="96"/>
       <c r="C73" s="95" t="s">
-        <v>754</v>
-      </c>
-      <c r="D73" s="87" t="s">
-        <v>652</v>
+        <v>740</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E73" s="95" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="F73" s="95" t="s">
-        <v>756</v>
-      </c>
-      <c r="G73" s="97" t="s">
-        <v>656</v>
+        <v>742</v>
+      </c>
+      <c r="G73" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="63.6">
-      <c r="A74" s="94"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
       <c r="G74" s="99"/>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1">
-      <c r="A75" s="96"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="98"/>
+      <c r="A75" s="97"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="100"/>
     </row>
     <row r="76" spans="1:7" ht="82.8">
       <c r="A76" s="95" t="s">
-        <v>757</v>
-      </c>
-      <c r="B76" s="94"/>
+        <v>743</v>
+      </c>
+      <c r="B76" s="96"/>
       <c r="C76" s="95" t="s">
-        <v>758</v>
-      </c>
-      <c r="D76" s="87" t="s">
-        <v>652</v>
+        <v>744</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E76" s="95" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="F76" s="95" t="s">
-        <v>760</v>
-      </c>
-      <c r="G76" s="97" t="s">
-        <v>656</v>
+        <v>746</v>
+      </c>
+      <c r="G76" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="63.6">
-      <c r="A77" s="94"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E77" s="94"/>
-      <c r="F77" s="94"/>
+      <c r="A77" s="96"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
       <c r="G77" s="99"/>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1">
-      <c r="A78" s="96"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="98"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="100"/>
     </row>
     <row r="79" spans="1:7" ht="82.8">
       <c r="A79" s="95" t="s">
-        <v>761</v>
-      </c>
-      <c r="B79" s="94"/>
+        <v>747</v>
+      </c>
+      <c r="B79" s="96"/>
       <c r="C79" s="95" t="s">
-        <v>762</v>
-      </c>
-      <c r="D79" s="87" t="s">
-        <v>652</v>
+        <v>748</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E79" s="95" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="F79" s="95" t="s">
-        <v>752</v>
-      </c>
-      <c r="G79" s="97" t="s">
-        <v>656</v>
+        <v>738</v>
+      </c>
+      <c r="G79" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="63.6">
-      <c r="A80" s="94"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E80" s="94"/>
-      <c r="F80" s="94"/>
+      <c r="A80" s="96"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
       <c r="G80" s="99"/>
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1">
-      <c r="A81" s="96"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="98"/>
+      <c r="A81" s="97"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="97"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="97"/>
+      <c r="G81" s="100"/>
     </row>
     <row r="82" spans="1:7" ht="82.8">
       <c r="A82" s="95" t="s">
-        <v>764</v>
-      </c>
-      <c r="B82" s="94"/>
+        <v>750</v>
+      </c>
+      <c r="B82" s="96"/>
       <c r="C82" s="95" t="s">
-        <v>765</v>
-      </c>
-      <c r="D82" s="87" t="s">
-        <v>652</v>
+        <v>751</v>
+      </c>
+      <c r="D82" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E82" s="95" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="F82" s="95" t="s">
-        <v>767</v>
-      </c>
-      <c r="G82" s="97" t="s">
-        <v>656</v>
+        <v>753</v>
+      </c>
+      <c r="G82" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="63.6">
-      <c r="A83" s="94"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E83" s="94"/>
-      <c r="F83" s="94"/>
+      <c r="A83" s="96"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
       <c r="G83" s="99"/>
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1">
-      <c r="A84" s="96"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="98"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="100"/>
     </row>
     <row r="85" spans="1:7" ht="82.8">
       <c r="A85" s="95" t="s">
-        <v>768</v>
-      </c>
-      <c r="B85" s="94"/>
+        <v>754</v>
+      </c>
+      <c r="B85" s="96"/>
       <c r="C85" s="95" t="s">
-        <v>769</v>
-      </c>
-      <c r="D85" s="87" t="s">
-        <v>652</v>
+        <v>755</v>
+      </c>
+      <c r="D85" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E85" s="95" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="F85" s="95" t="s">
-        <v>771</v>
-      </c>
-      <c r="G85" s="97" t="s">
-        <v>656</v>
+        <v>757</v>
+      </c>
+      <c r="G85" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="63.6">
-      <c r="A86" s="94"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
+      <c r="A86" s="96"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
       <c r="G86" s="99"/>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1">
-      <c r="A87" s="96"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="98"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="97"/>
+      <c r="G87" s="100"/>
     </row>
     <row r="88" spans="1:7" ht="84.6" customHeight="1">
       <c r="A88" s="95" t="s">
-        <v>772</v>
-      </c>
-      <c r="B88" s="94"/>
+        <v>758</v>
+      </c>
+      <c r="B88" s="96"/>
       <c r="C88" s="95" t="s">
-        <v>773</v>
-      </c>
-      <c r="D88" s="87" t="s">
-        <v>652</v>
+        <v>759</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E88" s="95" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="F88" s="95" t="s">
-        <v>775</v>
-      </c>
-      <c r="G88" s="97" t="s">
-        <v>656</v>
+        <v>761</v>
+      </c>
+      <c r="G88" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="63.6">
-      <c r="A89" s="94"/>
-      <c r="B89" s="94"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E89" s="94"/>
-      <c r="F89" s="94"/>
+      <c r="A89" s="96"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E89" s="96"/>
+      <c r="F89" s="96"/>
       <c r="G89" s="99"/>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1">
-      <c r="A90" s="96"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="96"/>
-      <c r="F90" s="96"/>
-      <c r="G90" s="98"/>
+      <c r="A90" s="97"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="97"/>
+      <c r="F90" s="97"/>
+      <c r="G90" s="100"/>
     </row>
     <row r="91" spans="1:7" ht="82.8">
       <c r="A91" s="95" t="s">
-        <v>776</v>
-      </c>
-      <c r="B91" s="94"/>
+        <v>762</v>
+      </c>
+      <c r="B91" s="96"/>
       <c r="C91" s="95" t="s">
-        <v>777</v>
-      </c>
-      <c r="D91" s="87" t="s">
-        <v>652</v>
+        <v>763</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E91" s="95" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="F91" s="95" t="s">
-        <v>779</v>
-      </c>
-      <c r="G91" s="97" t="s">
-        <v>656</v>
+        <v>765</v>
+      </c>
+      <c r="G91" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="63.6">
-      <c r="A92" s="94"/>
-      <c r="B92" s="94"/>
-      <c r="C92" s="94"/>
-      <c r="D92" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E92" s="94"/>
-      <c r="F92" s="94"/>
+      <c r="A92" s="96"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E92" s="96"/>
+      <c r="F92" s="96"/>
       <c r="G92" s="99"/>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1">
-      <c r="A93" s="96"/>
-      <c r="B93" s="94"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="96"/>
-      <c r="G93" s="98"/>
+      <c r="A93" s="97"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="100"/>
     </row>
     <row r="94" spans="1:7" ht="82.8">
       <c r="A94" s="95" t="s">
-        <v>780</v>
-      </c>
-      <c r="B94" s="94"/>
+        <v>766</v>
+      </c>
+      <c r="B94" s="96"/>
       <c r="C94" s="95" t="s">
-        <v>781</v>
-      </c>
-      <c r="D94" s="87" t="s">
-        <v>652</v>
+        <v>767</v>
+      </c>
+      <c r="D94" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E94" s="95" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="F94" s="95" t="s">
-        <v>783</v>
-      </c>
-      <c r="G94" s="97" t="s">
-        <v>656</v>
+        <v>769</v>
+      </c>
+      <c r="G94" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="63.6">
-      <c r="A95" s="94"/>
-      <c r="B95" s="94"/>
-      <c r="C95" s="94"/>
-      <c r="D95" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E95" s="94"/>
-      <c r="F95" s="94"/>
+      <c r="A95" s="96"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E95" s="96"/>
+      <c r="F95" s="96"/>
       <c r="G95" s="99"/>
     </row>
     <row r="96" spans="1:7" ht="15" thickBot="1">
-      <c r="A96" s="96"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="96"/>
-      <c r="F96" s="96"/>
-      <c r="G96" s="98"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="97"/>
+      <c r="F96" s="97"/>
+      <c r="G96" s="100"/>
     </row>
     <row r="97" spans="1:7" ht="82.8">
       <c r="A97" s="95" t="s">
-        <v>784</v>
-      </c>
-      <c r="B97" s="94"/>
+        <v>770</v>
+      </c>
+      <c r="B97" s="96"/>
       <c r="C97" s="95" t="s">
-        <v>785</v>
-      </c>
-      <c r="D97" s="87" t="s">
-        <v>652</v>
+        <v>771</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E97" s="95" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="F97" s="95" t="s">
-        <v>787</v>
-      </c>
-      <c r="G97" s="97" t="s">
-        <v>656</v>
+        <v>773</v>
+      </c>
+      <c r="G97" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="63.6">
-      <c r="A98" s="94"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="94"/>
-      <c r="D98" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94"/>
+      <c r="A98" s="96"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E98" s="96"/>
+      <c r="F98" s="96"/>
       <c r="G98" s="99"/>
     </row>
     <row r="99" spans="1:7" ht="15" thickBot="1">
-      <c r="A99" s="96"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="96"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="98"/>
+      <c r="A99" s="97"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="97"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="100"/>
     </row>
     <row r="100" spans="1:7" ht="82.8">
       <c r="A100" s="95" t="s">
-        <v>788</v>
-      </c>
-      <c r="B100" s="94"/>
+        <v>774</v>
+      </c>
+      <c r="B100" s="96"/>
       <c r="C100" s="95" t="s">
-        <v>789</v>
-      </c>
-      <c r="D100" s="87" t="s">
-        <v>652</v>
+        <v>775</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E100" s="95" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="F100" s="95" t="s">
-        <v>791</v>
-      </c>
-      <c r="G100" s="97" t="s">
-        <v>656</v>
+        <v>777</v>
+      </c>
+      <c r="G100" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="63.6">
-      <c r="A101" s="94"/>
-      <c r="B101" s="94"/>
-      <c r="C101" s="94"/>
-      <c r="D101" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E101" s="94"/>
-      <c r="F101" s="94"/>
+      <c r="A101" s="96"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E101" s="96"/>
+      <c r="F101" s="96"/>
       <c r="G101" s="99"/>
     </row>
     <row r="102" spans="1:7" ht="15" thickBot="1">
-      <c r="A102" s="96"/>
-      <c r="B102" s="94"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="91"/>
-      <c r="E102" s="96"/>
-      <c r="F102" s="96"/>
-      <c r="G102" s="98"/>
+      <c r="A102" s="97"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="97"/>
+      <c r="F102" s="97"/>
+      <c r="G102" s="100"/>
     </row>
     <row r="103" spans="1:7" ht="184.2" thickBot="1">
-      <c r="A103" s="92" t="s">
-        <v>792</v>
-      </c>
-      <c r="B103" s="94"/>
-      <c r="C103" s="89" t="s">
-        <v>793</v>
-      </c>
-      <c r="D103" s="93" t="s">
-        <v>794</v>
-      </c>
-      <c r="E103" s="89" t="s">
-        <v>795</v>
-      </c>
-      <c r="F103" s="89" t="s">
-        <v>796</v>
-      </c>
-      <c r="G103" s="93" t="s">
-        <v>797</v>
+      <c r="A103" s="54" t="s">
+        <v>778</v>
+      </c>
+      <c r="B103" s="96"/>
+      <c r="C103" s="51" t="s">
+        <v>779</v>
+      </c>
+      <c r="D103" s="55" t="s">
+        <v>780</v>
+      </c>
+      <c r="E103" s="51" t="s">
+        <v>781</v>
+      </c>
+      <c r="F103" s="51" t="s">
+        <v>782</v>
+      </c>
+      <c r="G103" s="55" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="82.8">
       <c r="A104" s="95" t="s">
-        <v>798</v>
-      </c>
-      <c r="B104" s="94"/>
+        <v>784</v>
+      </c>
+      <c r="B104" s="96"/>
       <c r="C104" s="95" t="s">
-        <v>799</v>
-      </c>
-      <c r="D104" s="87" t="s">
-        <v>652</v>
+        <v>785</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>638</v>
       </c>
       <c r="E104" s="95" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="F104" s="95" t="s">
-        <v>801</v>
-      </c>
-      <c r="G104" s="97" t="s">
-        <v>656</v>
+        <v>787</v>
+      </c>
+      <c r="G104" s="98" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="63.6">
-      <c r="A105" s="94"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="94"/>
-      <c r="D105" s="90" t="s">
-        <v>653</v>
-      </c>
-      <c r="E105" s="94"/>
-      <c r="F105" s="94"/>
+      <c r="A105" s="96"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E105" s="96"/>
+      <c r="F105" s="96"/>
       <c r="G105" s="99"/>
     </row>
     <row r="106" spans="1:7" ht="15" thickBot="1">
-      <c r="A106" s="96"/>
-      <c r="B106" s="96"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="96"/>
-      <c r="F106" s="96"/>
-      <c r="G106" s="98"/>
+      <c r="A106" s="97"/>
+      <c r="B106" s="97"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="97"/>
+      <c r="G106" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="180">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B106"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="G97:G99"/>
     <mergeCell ref="A100:A102"/>
     <mergeCell ref="C100:C102"/>
     <mergeCell ref="E100:E102"/>
@@ -10858,176 +10798,6 @@
     <mergeCell ref="E104:E106"/>
     <mergeCell ref="F104:F106"/>
     <mergeCell ref="G104:G106"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B106"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11045,424 +10815,424 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" thickBot="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="110" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="111" t="s">
+      <c r="B1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A2" s="112">
+      <c r="A2" s="59">
         <v>1</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>789</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>790</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36.6" thickBot="1">
+      <c r="A3" s="59">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>793</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.6" thickBot="1">
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>796</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>797</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72.599999999999994" thickBot="1">
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>799</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>800</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>801</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>802</v>
       </c>
-      <c r="C2" s="113" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="48.6" thickBot="1">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>799</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>803</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D6" s="60" t="s">
         <v>804</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E6" s="60" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A3" s="112">
-        <v>2</v>
-      </c>
-      <c r="B3" s="113" t="s">
-        <v>802</v>
-      </c>
-      <c r="C3" s="113" t="s">
+    <row r="7" spans="1:5" ht="48.6" thickBot="1">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>799</v>
+      </c>
+      <c r="C7" s="60" t="s">
         <v>806</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D7" s="60" t="s">
         <v>807</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E7" s="60">
+        <v>13667965571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36.6" thickBot="1">
+      <c r="A8" s="59">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="24.6" thickBot="1">
-      <c r="A4" s="112">
-        <v>3</v>
-      </c>
-      <c r="B4" s="113" t="s">
+      <c r="C8" s="60" t="s">
         <v>809</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="D8" s="60" t="s">
         <v>810</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="E8" s="60" t="s">
         <v>811</v>
       </c>
-      <c r="E4" s="113" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="24.6" thickBot="1">
+      <c r="A9" s="59">
+        <v>8</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>808</v>
+      </c>
+      <c r="C9" s="60" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="72.599999999999994" thickBot="1">
-      <c r="A5" s="112">
-        <v>4</v>
-      </c>
-      <c r="B5" s="113" t="s">
+      <c r="D9" s="60" t="s">
         <v>813</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="E9" s="60" t="s">
         <v>814</v>
       </c>
-      <c r="D5" s="113" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="60.6" thickBot="1">
+      <c r="A10" s="59">
+        <v>9</v>
+      </c>
+      <c r="B10" s="60" t="s">
         <v>815</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="C10" s="60" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="48.6" thickBot="1">
-      <c r="A6" s="112">
-        <v>5</v>
-      </c>
-      <c r="B6" s="113" t="s">
-        <v>813</v>
-      </c>
-      <c r="C6" s="113" t="s">
+      <c r="D10" s="60" t="s">
         <v>817</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="E10" s="60" t="s">
         <v>818</v>
       </c>
-      <c r="E6" s="113" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="36.6" thickBot="1">
+      <c r="A11" s="59">
+        <v>10</v>
+      </c>
+      <c r="B11" s="60" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="48.6" thickBot="1">
-      <c r="A7" s="112">
-        <v>6</v>
-      </c>
-      <c r="B7" s="113" t="s">
-        <v>813</v>
-      </c>
-      <c r="C7" s="113" t="s">
+      <c r="C11" s="60" t="s">
         <v>820</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D11" s="60" t="s">
         <v>821</v>
       </c>
-      <c r="E7" s="113">
-        <v>13667965571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A8" s="112">
-        <v>7</v>
-      </c>
-      <c r="B8" s="113" t="s">
+      <c r="E11" s="60" t="s">
         <v>822</v>
       </c>
-      <c r="C8" s="113" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="36.6" thickBot="1">
+      <c r="A12" s="59">
+        <v>11</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>819</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>823</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D12" s="60" t="s">
         <v>824</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E12" s="60" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.6" thickBot="1">
-      <c r="A9" s="112">
-        <v>8</v>
-      </c>
-      <c r="B9" s="113" t="s">
-        <v>822</v>
-      </c>
-      <c r="C9" s="113" t="s">
+    <row r="13" spans="1:5" ht="48.6" thickBot="1">
+      <c r="A13" s="59">
+        <v>12</v>
+      </c>
+      <c r="B13" s="60" t="s">
         <v>826</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="C13" s="60" t="s">
         <v>827</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="D13" s="60" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="60.6" thickBot="1">
-      <c r="A10" s="112">
-        <v>9</v>
-      </c>
-      <c r="B10" s="113" t="s">
+      <c r="E13" s="60" t="s">
         <v>829</v>
       </c>
-      <c r="C10" s="113" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="36.6" thickBot="1">
+      <c r="A14" s="59">
+        <v>13</v>
+      </c>
+      <c r="B14" s="60" t="s">
         <v>830</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="C14" s="60" t="s">
         <v>831</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="D14" s="60" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A11" s="112">
-        <v>10</v>
-      </c>
-      <c r="B11" s="113" t="s">
+      <c r="E14" s="60" t="s">
         <v>833</v>
       </c>
-      <c r="C11" s="113" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="36.6" thickBot="1">
+      <c r="A15" s="59">
+        <v>14</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>830</v>
+      </c>
+      <c r="C15" s="60" t="s">
         <v>834</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D15" s="60" t="s">
         <v>835</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E15" s="60" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A12" s="112">
-        <v>11</v>
-      </c>
-      <c r="B12" s="113" t="s">
-        <v>833</v>
-      </c>
-      <c r="C12" s="113" t="s">
+    <row r="16" spans="1:5" ht="36.6" thickBot="1">
+      <c r="A16" s="59">
+        <v>15</v>
+      </c>
+      <c r="B16" s="60" t="s">
         <v>837</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="C16" s="60" t="s">
         <v>838</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="D16" s="60" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="48.6" thickBot="1">
-      <c r="A13" s="112">
-        <v>12</v>
-      </c>
-      <c r="B13" s="113" t="s">
+      <c r="E16" s="60" t="s">
         <v>840</v>
       </c>
-      <c r="C13" s="113" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="36">
+      <c r="A17" s="110">
+        <v>16</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>837</v>
+      </c>
+      <c r="C17" s="110" t="s">
         <v>841</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D17" s="61" t="s">
         <v>842</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E17" s="110" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="48.6" thickBot="1">
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="60" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A14" s="112">
-        <v>13</v>
-      </c>
-      <c r="B14" s="113" t="s">
-        <v>844</v>
-      </c>
-      <c r="C14" s="113" t="s">
+      <c r="E18" s="111"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.6" thickBot="1">
+      <c r="A19" s="59">
+        <v>17</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>845</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="C19" s="60" t="s">
         <v>846</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="D19" s="60" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A15" s="112">
-        <v>14</v>
-      </c>
-      <c r="B15" s="113" t="s">
-        <v>844</v>
-      </c>
-      <c r="C15" s="113" t="s">
+      <c r="E19" s="60" t="s">
         <v>848</v>
       </c>
-      <c r="D15" s="113" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="24.6" thickBot="1">
+      <c r="A20" s="59">
+        <v>18</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>845</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="D20" s="60" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A16" s="112">
-        <v>15</v>
-      </c>
-      <c r="B16" s="113" t="s">
+      <c r="E20" s="60" t="s">
         <v>851</v>
       </c>
-      <c r="C16" s="113" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="36.6" thickBot="1">
+      <c r="A21" s="59">
+        <v>19</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>852</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="C21" s="60" t="s">
         <v>853</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="D21" s="60" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="36">
-      <c r="A17" s="115">
-        <v>16</v>
-      </c>
-      <c r="B17" s="115" t="s">
-        <v>851</v>
-      </c>
-      <c r="C17" s="115" t="s">
+      <c r="E21" s="60">
+        <v>19979610344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="48.6" thickBot="1">
+      <c r="A22" s="59">
+        <v>20</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>852</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>855</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D22" s="60" t="s">
         <v>856</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E22" s="60" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="48.6" thickBot="1">
+      <c r="A23" s="59">
+        <v>21</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="48.6" thickBot="1">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="113" t="s">
-        <v>857</v>
-      </c>
-      <c r="E18" s="116"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.6" thickBot="1">
-      <c r="A19" s="112">
-        <v>17</v>
-      </c>
-      <c r="B19" s="113" t="s">
+      <c r="C23" s="60" t="s">
         <v>859</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="D23" s="60" t="s">
         <v>860</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="E23" s="60">
+        <v>13970692890</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60.6" thickBot="1">
+      <c r="A24" s="59">
+        <v>22</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>858</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>861</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="D24" s="60" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="24.6" thickBot="1">
-      <c r="A20" s="112">
-        <v>18</v>
-      </c>
-      <c r="B20" s="113" t="s">
-        <v>859</v>
-      </c>
-      <c r="C20" s="113" t="s">
+      <c r="E24" s="60">
+        <v>18170652623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="36.6" thickBot="1">
+      <c r="A25" s="59">
+        <v>23</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>863</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="C25" s="60" t="s">
         <v>864</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="D25" s="60" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A21" s="112">
-        <v>19</v>
-      </c>
-      <c r="B21" s="113" t="s">
-        <v>866</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>867</v>
-      </c>
-      <c r="D21" s="113" t="s">
-        <v>868</v>
-      </c>
-      <c r="E21" s="113">
-        <v>19979610344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="48.6" thickBot="1">
-      <c r="A22" s="112">
-        <v>20</v>
-      </c>
-      <c r="B22" s="113" t="s">
-        <v>866</v>
-      </c>
-      <c r="C22" s="113" t="s">
-        <v>869</v>
-      </c>
-      <c r="D22" s="113" t="s">
-        <v>870</v>
-      </c>
-      <c r="E22" s="113" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="48.6" thickBot="1">
-      <c r="A23" s="112">
-        <v>21</v>
-      </c>
-      <c r="B23" s="113" t="s">
-        <v>872</v>
-      </c>
-      <c r="C23" s="113" t="s">
-        <v>873</v>
-      </c>
-      <c r="D23" s="113" t="s">
-        <v>874</v>
-      </c>
-      <c r="E23" s="113">
-        <v>13970692890</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="60.6" thickBot="1">
-      <c r="A24" s="112">
-        <v>22</v>
-      </c>
-      <c r="B24" s="113" t="s">
-        <v>872</v>
-      </c>
-      <c r="C24" s="113" t="s">
-        <v>875</v>
-      </c>
-      <c r="D24" s="113" t="s">
-        <v>876</v>
-      </c>
-      <c r="E24" s="113">
-        <v>18170652623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="36.6" thickBot="1">
-      <c r="A25" s="112">
-        <v>23</v>
-      </c>
-      <c r="B25" s="113" t="s">
-        <v>877</v>
-      </c>
-      <c r="C25" s="113" t="s">
-        <v>878</v>
-      </c>
-      <c r="D25" s="113" t="s">
-        <v>879</v>
-      </c>
-      <c r="E25" s="113">
+      <c r="E25" s="60">
         <v>19169791061</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.2">
-      <c r="A26" s="117"/>
+      <c r="A26" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
